--- a/import/201807_import_new.xlsx
+++ b/import/201807_import_new.xlsx
@@ -754,6 +754,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,9 +764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7621,39 +7621,39 @@
     <row r="1" spans="1:25" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="35" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7727,7 +7727,7 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="35">
         <v>1</v>
       </c>
       <c r="C3" s="18">
@@ -7773,7 +7773,7 @@
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="35">
         <v>1</v>
       </c>
       <c r="C4" s="21">
@@ -7815,7 +7815,7 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
       <c r="C5" s="21">
@@ -7849,7 +7849,7 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="35">
         <v>1</v>
       </c>
       <c r="C6" s="21">
@@ -7883,28 +7883,12 @@
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12">
-        <v>211</v>
-      </c>
-      <c r="E7" s="12">
-        <v>195</v>
-      </c>
+      <c r="C7" s="21"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="30">
-        <v>50</v>
-      </c>
-      <c r="H7" s="13">
-        <v>211</v>
-      </c>
-      <c r="I7" s="13">
-        <v>195</v>
-      </c>
+      <c r="G7" s="30"/>
       <c r="J7" s="31"/>
       <c r="K7" s="21"/>
       <c r="N7" s="22"/>
@@ -7925,28 +7909,12 @@
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="35">
         <v>3</v>
       </c>
-      <c r="C8" s="21">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12">
-        <v>211</v>
-      </c>
-      <c r="E8" s="12">
-        <v>195</v>
-      </c>
+      <c r="C8" s="21"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="30">
-        <v>50</v>
-      </c>
-      <c r="H8" s="13">
-        <v>211</v>
-      </c>
-      <c r="I8" s="13">
-        <v>195</v>
-      </c>
+      <c r="G8" s="30"/>
       <c r="J8" s="31"/>
       <c r="K8" s="21"/>
       <c r="N8" s="22"/>
@@ -7967,7 +7935,7 @@
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="35">
         <v>4</v>
       </c>
       <c r="C9" s="23"/>

--- a/import/201807_import_new.xlsx
+++ b/import/201807_import_new.xlsx
@@ -7597,12 +7597,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="12" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="12" customWidth="1"/>
